--- a/product_upload/tests/products_2.xlsx
+++ b/product_upload/tests/products_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="EINHELL" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Referencia</t>
   </si>
@@ -49,27 +49,32 @@
     <t xml:space="preserve">Código mercadolibre</t>
   </si>
   <si>
-    <t xml:space="preserve">Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">912.6.60-EFACEC</t>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1077-EINHELL</t>
   </si>
   <si>
     <t xml:space="preserve">ARS</t>
   </si>
   <si>
-    <t xml:space="preserve">BULON 8.8 MA BC   6x1.00x60</t>
+    <t xml:space="preserve">PILA E91 AA ALCALINA ENERGIZER MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8999002671924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +95,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +121,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -128,33 +140,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -164,21 +187,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -206,36 +231,35 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>14.4876</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>21.7314</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>2278</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/product_upload/tests/products_2.xlsx
+++ b/product_upload/tests/products_2.xlsx
@@ -190,17 +190,17 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
